--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3709053333333334</v>
+        <v>0.003873666666666666</v>
       </c>
       <c r="H2">
-        <v>1.112716</v>
+        <v>0.011621</v>
       </c>
       <c r="I2">
-        <v>0.01868139080022812</v>
+        <v>0.000207097047037761</v>
       </c>
       <c r="J2">
-        <v>0.01868139080022812</v>
+        <v>0.0002070970470377611</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.000565</v>
+        <v>2.133443333333334</v>
       </c>
       <c r="N2">
-        <v>30.001695</v>
+        <v>6.40033</v>
       </c>
       <c r="O2">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="P2">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="Q2">
-        <v>3.709262894846667</v>
+        <v>0.008264248325555557</v>
       </c>
       <c r="R2">
-        <v>33.38336605362</v>
+        <v>0.07437823493</v>
       </c>
       <c r="S2">
-        <v>0.01179982729883866</v>
+        <v>5.396841147600254E-05</v>
       </c>
       <c r="T2">
-        <v>0.01179982729883866</v>
+        <v>5.396841147600255E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3709053333333334</v>
+        <v>0.003873666666666666</v>
       </c>
       <c r="H3">
-        <v>1.112716</v>
+        <v>0.011621</v>
       </c>
       <c r="I3">
-        <v>0.01868139080022812</v>
+        <v>0.000207097047037761</v>
       </c>
       <c r="J3">
-        <v>0.01868139080022812</v>
+        <v>0.0002070970470377611</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.79438</v>
       </c>
       <c r="O3">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846115</v>
       </c>
       <c r="P3">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846116</v>
       </c>
       <c r="Q3">
-        <v>1.581834592897778</v>
+        <v>0.01652038777555555</v>
       </c>
       <c r="R3">
-        <v>14.23651133608</v>
+        <v>0.14868348998</v>
       </c>
       <c r="S3">
-        <v>0.005032098166310782</v>
+        <v>0.0001078838691786732</v>
       </c>
       <c r="T3">
-        <v>0.005032098166310782</v>
+        <v>0.0001078838691786732</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3709053333333334</v>
+        <v>0.003873666666666666</v>
       </c>
       <c r="H4">
-        <v>1.112716</v>
+        <v>0.011621</v>
       </c>
       <c r="I4">
-        <v>0.01868139080022812</v>
+        <v>0.000207097047037761</v>
       </c>
       <c r="J4">
-        <v>0.01868139080022812</v>
+        <v>0.0002070970470377611</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.567455</v>
+        <v>1.788586</v>
       </c>
       <c r="N4">
-        <v>4.702364999999999</v>
+        <v>5.365758</v>
       </c>
       <c r="O4">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
       <c r="P4">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
       <c r="Q4">
-        <v>0.58137741926</v>
+        <v>0.006928385968666666</v>
       </c>
       <c r="R4">
-        <v>5.23239677334</v>
+        <v>0.06235547371799999</v>
       </c>
       <c r="S4">
-        <v>0.001849465335078682</v>
+        <v>4.52447663830853E-05</v>
       </c>
       <c r="T4">
-        <v>0.001849465335078682</v>
+        <v>4.524476638308532E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>55.794364</v>
       </c>
       <c r="I5">
-        <v>0.936731671274772</v>
+        <v>0.9943075488985426</v>
       </c>
       <c r="J5">
-        <v>0.936731671274772</v>
+        <v>0.9943075488985427</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.000565</v>
+        <v>2.133443333333334</v>
       </c>
       <c r="N5">
-        <v>30.001695</v>
+        <v>6.40033</v>
       </c>
       <c r="O5">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="P5">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="Q5">
-        <v>185.9917212718867</v>
+        <v>39.67803797112445</v>
       </c>
       <c r="R5">
-        <v>1673.92549144698</v>
+        <v>357.10234174012</v>
       </c>
       <c r="S5">
-        <v>0.5916728612229363</v>
+        <v>0.2591113668697929</v>
       </c>
       <c r="T5">
-        <v>0.5916728612229363</v>
+        <v>0.259111366869793</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>55.794364</v>
       </c>
       <c r="I6">
-        <v>0.936731671274772</v>
+        <v>0.9943075488985426</v>
       </c>
       <c r="J6">
-        <v>0.936731671274772</v>
+        <v>0.9943075488985427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>12.79438</v>
       </c>
       <c r="O6">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846115</v>
       </c>
       <c r="P6">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846116</v>
       </c>
       <c r="Q6">
         <v>79.31714387492445</v>
@@ -818,10 +818,10 @@
         <v>713.8542948743201</v>
       </c>
       <c r="S6">
-        <v>0.2523219912132802</v>
+        <v>0.5179684938200906</v>
       </c>
       <c r="T6">
-        <v>0.2523219912132802</v>
+        <v>0.5179684938200908</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>55.794364</v>
       </c>
       <c r="I7">
-        <v>0.936731671274772</v>
+        <v>0.9943075488985426</v>
       </c>
       <c r="J7">
-        <v>0.936731671274772</v>
+        <v>0.9943075488985427</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.567455</v>
+        <v>1.788586</v>
       </c>
       <c r="N7">
-        <v>4.702364999999999</v>
+        <v>5.365758</v>
       </c>
       <c r="O7">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
       <c r="P7">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
       <c r="Q7">
-        <v>29.15171827454</v>
+        <v>33.26433944310133</v>
       </c>
       <c r="R7">
-        <v>262.36546447086</v>
+        <v>299.379054987912</v>
       </c>
       <c r="S7">
-        <v>0.09273681883855538</v>
+        <v>0.2172276882086589</v>
       </c>
       <c r="T7">
-        <v>0.09273681883855538</v>
+        <v>0.217227688208659</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.8852410000000001</v>
+        <v>0.1026013333333333</v>
       </c>
       <c r="H8">
-        <v>2.655723</v>
+        <v>0.307804</v>
       </c>
       <c r="I8">
-        <v>0.04458693792499994</v>
+        <v>0.005485354054419671</v>
       </c>
       <c r="J8">
-        <v>0.04458693792499994</v>
+        <v>0.005485354054419673</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.000565</v>
+        <v>2.133443333333334</v>
       </c>
       <c r="N8">
-        <v>30.001695</v>
+        <v>6.40033</v>
       </c>
       <c r="O8">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="P8">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="Q8">
-        <v>8.852910161165001</v>
+        <v>0.2188941305911112</v>
       </c>
       <c r="R8">
-        <v>79.67619145048499</v>
+        <v>1.97004717532</v>
       </c>
       <c r="S8">
-        <v>0.02816268729267279</v>
+        <v>0.00142945468771702</v>
       </c>
       <c r="T8">
-        <v>0.02816268729267279</v>
+        <v>0.00142945468771702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.8852410000000001</v>
+        <v>0.1026013333333333</v>
       </c>
       <c r="H9">
-        <v>2.655723</v>
+        <v>0.307804</v>
       </c>
       <c r="I9">
-        <v>0.04458693792499994</v>
+        <v>0.005485354054419671</v>
       </c>
       <c r="J9">
-        <v>0.04458693792499994</v>
+        <v>0.005485354054419673</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>12.79438</v>
       </c>
       <c r="O9">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846115</v>
       </c>
       <c r="P9">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846116</v>
       </c>
       <c r="Q9">
-        <v>3.775369915193334</v>
+        <v>0.4375734823911112</v>
       </c>
       <c r="R9">
-        <v>33.97832923674</v>
+        <v>3.93816134152</v>
       </c>
       <c r="S9">
-        <v>0.01201012552936182</v>
+        <v>0.002857506795342253</v>
       </c>
       <c r="T9">
-        <v>0.01201012552936182</v>
+        <v>0.002857506795342254</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.8852410000000001</v>
+        <v>0.1026013333333333</v>
       </c>
       <c r="H10">
-        <v>2.655723</v>
+        <v>0.307804</v>
       </c>
       <c r="I10">
-        <v>0.04458693792499994</v>
+        <v>0.005485354054419671</v>
       </c>
       <c r="J10">
-        <v>0.04458693792499994</v>
+        <v>0.005485354054419673</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.567455</v>
+        <v>1.788586</v>
       </c>
       <c r="N10">
-        <v>4.702364999999999</v>
+        <v>5.365758</v>
       </c>
       <c r="O10">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
       <c r="P10">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
       <c r="Q10">
-        <v>1.387575431655</v>
+        <v>0.1835113083813333</v>
       </c>
       <c r="R10">
-        <v>12.488178884895</v>
+        <v>1.651601775432</v>
       </c>
       <c r="S10">
-        <v>0.004414125102965324</v>
+        <v>0.001198392571360398</v>
       </c>
       <c r="T10">
-        <v>0.004414125102965324</v>
+        <v>0.001198392571360399</v>
       </c>
     </row>
   </sheetData>
